--- a/biology/Zoologie/Cephalotes_cordiae/Cephalotes_cordiae.xlsx
+++ b/biology/Zoologie/Cephalotes_cordiae/Cephalotes_cordiae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes cordiae est une espèce de fourmis arboricoles du genre Cephalotes[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes cordiae est une espèce de fourmis arboricoles du genre Cephalotes,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est trouvée à travers toute la moitié Nord du l'Amérique du Sud, de la Bolivie jusqu'au Venezuela en passant par l'état de Bahia au Brésil[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est trouvée à travers toute la moitié Nord du l'Amérique du Sud, de la Bolivie jusqu'au Venezuela en passant par l'état de Bahia au Brésil.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres[4]. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt.
 Elle fut décrite et classifiée pour la première fois par l'entomologiste allemand Hermann Stitz en 1913.
 </t>
         </is>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
